--- a/predictions/Ceguera.xlsx
+++ b/predictions/Ceguera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>R2</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PARAMS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.817159822045677</v>
+        <v>2.818046649090344</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9014509966687433</v>
+        <v>0.9000706018894485</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'memory': None, 'steps': [('model', RandomForestRegressor(max_depth=5))], 'verbose': False, 'model': RandomForestRegressor(max_depth=5), 'model__bootstrap': True, 'model__ccp_alpha': 0.0, 'model__criterion': 'squared_error', 'model__max_depth': 5, 'model__max_features': 1.0, 'model__max_leaf_nodes': None, 'model__max_samples': None, 'model__min_impurity_decrease': 0.0, 'model__min_samples_leaf': 1, 'model__min_samples_split': 2, 'model__min_weight_fraction_leaf': 0.0, 'model__n_estimators': 100, 'model__n_jobs': None, 'model__oob_score': False, 'model__random_state': None, 'model__verbose': 0, 'model__warm_start': False}</t>
+        </is>
       </c>
     </row>
   </sheetData>
